--- a/Lectures/IF6080 Pembelajaran Mesin Probabilistik/HW/Perhitungan Kata.xlsx
+++ b/Lectures/IF6080 Pembelajaran Mesin Probabilistik/HW/Perhitungan Kata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\books\Lectures\IF6080 Pembelajaran Mesin Probabilistik\HW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_BOOKS\_REPO\Lectures\IF6080 Pembelajaran Mesin Probabilistik\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD48AA4-FBBB-4F14-8565-A49CA7ED6485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB191B43-F0E1-4249-B3A9-23110F07BCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0A836935-2D9B-4A54-9CFE-313CCF5F5FCE}"/>
+    <workbookView xWindow="6750" yWindow="3015" windowWidth="21600" windowHeight="11505" xr2:uid="{0A836935-2D9B-4A54-9CFE-313CCF5F5FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <t>oracle</t>
   </si>
@@ -211,6 +212,51 @@
   </si>
   <si>
     <t>can</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>definining</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>rehape</t>
+  </si>
+  <si>
+    <t>yes + hallu</t>
+  </si>
+  <si>
+    <t>adoption</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -562,167 +608,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFC3D8E-97C5-4F34-B3B7-6D87CC5FA4E4}">
-  <dimension ref="B1:E63"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="73" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>D2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:G68" si="0">C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -732,192 +988,456 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -927,165 +1447,877 @@
       <c r="D44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
       <c r="B47" t="s">
         <v>44</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
       <c r="B49" t="s">
         <v>46</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
       <c r="B50" t="s">
         <v>47</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
       <c r="B51" t="s">
         <v>48</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
       <c r="B52" t="s">
         <v>49</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
       <c r="B54" t="s">
         <v>51</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
       <c r="B55" t="s">
         <v>52</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
       <c r="B57" t="s">
         <v>54</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
       <c r="B58" t="s">
         <v>55</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
       <c r="B59" t="s">
         <v>56</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
       <c r="B60" t="s">
         <v>57</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73">
         <f>SUM(C2:C61)</f>
         <v>44</v>
       </c>
-      <c r="D62">
-        <f>SUM(D2:D61)</f>
+      <c r="D73">
+        <f>SUM(D2:D68)</f>
         <v>32</v>
       </c>
-      <c r="E62">
-        <f>D62+C62</f>
+      <c r="E73">
+        <f>D73+C73</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C63">
-        <f>C62/$E$62</f>
+      <c r="F73">
+        <f>SUM(F2:F61)</f>
+        <v>104</v>
+      </c>
+      <c r="G73">
+        <f>SUM(G2:G68)</f>
+        <v>99</v>
+      </c>
+      <c r="H73">
+        <f>SUM(F73:G73)</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>C73/$E$73</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="D63">
-        <f>D62/$E$62</f>
+      <c r="D74">
+        <f>D73/$E$73</f>
         <v>0.42105263157894735</v>
+      </c>
+      <c r="F74">
+        <f>F73/$H$73</f>
+        <v>0.51231527093596063</v>
+      </c>
+      <c r="G74">
+        <f>G73/$H$73</f>
+        <v>0.48768472906403942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD7C5D3-3A0D-492A-8A40-D4B6986980E0}">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
